--- a/docs/響應式數據.xlsx
+++ b/docs/響應式數據.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Transfer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066C814F-E269-41CA-AFA0-7BA5FF1D82FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0C021-3303-4822-AA52-8553A731D3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>xs</t>
   </si>
@@ -216,6 +216,42 @@
   </si>
   <si>
     <t>STEP4要更新</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入框標題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入框文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入框提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28px</t>
+  </si>
+  <si>
+    <t>14px</t>
+  </si>
+  <si>
+    <t>15px</t>
+  </si>
+  <si>
+    <t>17px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32px</t>
+  </si>
+  <si>
+    <t>register.css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.css</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,17 +631,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -764,60 +801,102 @@
         <v>45</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
     </row>
@@ -830,16 +909,126 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9836CA-28E1-4B2A-ABB5-39DC9081603D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
         <v>51</v>
       </c>
     </row>

--- a/docs/響應式數據.xlsx
+++ b/docs/響應式數據.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Transfer\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Transfer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB0C021-3303-4822-AA52-8553A731D3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910BA1D-843C-4CB9-A31A-E041445C60EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -259,7 +259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,11 +633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -645,7 +645,7 @@
     <col min="5" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -723,7 +723,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -749,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -775,7 +775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -801,7 +801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -815,7 +815,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -869,7 +869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -895,7 +895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -911,11 +911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9836CA-28E1-4B2A-ABB5-39DC9081603D}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
@@ -923,7 +923,7 @@
     <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="25.5">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="25.5">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -975,7 +975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="25.5">
       <c r="A3" s="4" t="s">
         <v>60</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="25.5">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="J11" t="s">
         <v>51</v>
       </c>
@@ -1035,5 +1035,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/響應式數據.xlsx
+++ b/docs/響應式數據.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Transfer\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6910BA1D-843C-4CB9-A31A-E041445C60EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
+    <sheet name="members" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="80">
   <si>
     <t>xs</t>
   </si>
@@ -211,14 +206,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>右側登入區未做</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STEP4要更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>輸入框標題</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,15 +238,85 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>login.css</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>題</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42px</t>
+  </si>
+  <si>
+    <t>25px</t>
+  </si>
+  <si>
+    <t>輸入框按鈕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38px</t>
+  </si>
+  <si>
+    <t>23px</t>
+  </si>
+  <si>
+    <t>36px</t>
+  </si>
+  <si>
+    <t>21px</t>
+  </si>
+  <si>
+    <t>19px</t>
+  </si>
+  <si>
+    <t>LoginArea.vue</t>
+  </si>
+  <si>
+    <t>RegisterStep4.vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表單文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表單內容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterArea.vue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入區塊寬度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入區塊高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>520px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>650px</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600px</t>
+  </si>
+  <si>
+    <t>720px</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,12 +377,18 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -340,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -351,6 +414,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -623,21 +692,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultRowHeight="25.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -645,7 +714,7 @@
     <col min="5" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -671,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -697,7 +766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -723,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -749,7 +818,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -775,7 +844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
@@ -801,104 +870,164 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
-        <v>50</v>
-      </c>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -908,22 +1037,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9836CA-28E1-4B2A-ABB5-39DC9081603D}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f t="shared" ref="C2:E9" si="0">$F2</f>
+        <v>32px</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>32px</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>32px</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18px</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18px</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18px</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>16px</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>16px</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>16px</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>30px</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>30px</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f>$F5</f>
+        <v>30px</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>24px</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>24px</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>24px</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>600px</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>600px</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>600px</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>720px</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>720px</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>720px</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.5">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
@@ -949,88 +1329,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.5">
+    <row r="2" spans="1:8" ht="25.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="25.5">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="25.5">
-      <c r="A4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
